--- a/biology/Botanique/Parc_de_Vaugrenier/Parc_de_Vaugrenier.xlsx
+++ b/biology/Botanique/Parc_de_Vaugrenier/Parc_de_Vaugrenier.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le Parc de Vaugrenier est un des parcs départementaux des Alpes-Maritimes.
@@ -514,9 +526,11 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Adopté par les Massaliotes dès le VIIe siècle av. J.-C., puis par les Romains à partir de leur victoire sur les Oxybiens, en 154 av. J.-C., le site a gardé les vestiges d'un ancien temple peut-être dédié à Mercure[1] construit entre 20 et 10 av. J.-C., peut-être en liaison avec l'ouverture de la route côtière, la via Julia Augusta.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Adopté par les Massaliotes dès le VIIe siècle av. J.-C., puis par les Romains à partir de leur victoire sur les Oxybiens, en 154 av. J.-C., le site a gardé les vestiges d'un ancien temple peut-être dédié à Mercure construit entre 20 et 10 av. J.-C., peut-être en liaison avec l'ouverture de la route côtière, la via Julia Augusta.
 En août 2009, son accès devient plus facile aux personnes à mobilité réduite. Un premier tronçon d’un sentier aménagé permet, aux personnes en fauteuil roulant, de se promener dans le parc sur une distance d’un peu moins d’un kilomètre.
 En 2016, des appareils sportifs sont mis à la disposition des promeneurs.
 En Juillet 2018, l'aire de jeux est entièrement rénovée dans un esprit paysager.
